--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15320" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -644,9 +648,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1605,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="N154" sqref="N154:P157"/>
     </sheetView>
   </sheetViews>
@@ -6563,7 +6571,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19769,8 +19776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42:T45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19844,7 +19851,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.961,"N.A.")</f>
@@ -19878,7 +19885,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -19912,7 +19919,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -19946,7 +19953,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -19980,7 +19987,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -19996,7 +20003,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -20071,7 +20078,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.035295,"N.A.")</f>
@@ -20105,7 +20112,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -20139,7 +20146,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -20161,7 +20168,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -20183,7 +20190,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -20199,7 +20206,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -20274,7 +20281,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.003705,"N.A.")</f>
@@ -20296,7 +20303,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
@@ -20330,7 +20337,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
@@ -20352,7 +20359,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
@@ -20374,7 +20381,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -20390,7 +20397,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
@@ -20465,7 +20472,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.961,"N.A.")</f>
@@ -20499,7 +20506,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
@@ -20533,7 +20540,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
@@ -20567,7 +20574,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
@@ -20601,7 +20608,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
@@ -20617,7 +20624,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
@@ -20692,7 +20699,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.035295,"N.A.")</f>
@@ -20726,7 +20733,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="4"/>
@@ -20760,7 +20767,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="4"/>
@@ -20782,7 +20789,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="4"/>
@@ -20804,7 +20811,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -20820,7 +20827,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -20895,7 +20902,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.003705,"N.A.")</f>
@@ -20917,7 +20924,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="5"/>
@@ -20951,7 +20958,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="5"/>
@@ -20973,7 +20980,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="5"/>
@@ -20995,7 +21002,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
@@ -21011,7 +21018,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
@@ -21022,117 +21029,28 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="36">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47">
+  <dataValidations count="6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B10 B18 B26 B34 B42">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B11 B19 B27 B35 B43">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B12 B20 B28 B36 B44">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 B13 B21 B29 B37 B45">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6 B14 B22 B30 B38 B46">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7 B15 B23 B31 B39 B47">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -23,8 +28,11 @@
     <sheet name="Epidemic Characteristics" sheetId="14" r:id="rId14"/>
     <sheet name="Cascade Parameters" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -659,6 +667,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -953,12 +966,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -986,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1014,7 +1027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -1058,11 +1071,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1072,13 +1080,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1153,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1169,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1185,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1201,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1217,7 +1225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1233,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1308,7 +1316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1324,7 +1332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1340,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1356,7 +1364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1372,7 +1380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1388,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1463,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1479,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1495,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1511,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1527,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1601,11 +1609,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1617,13 +1620,13 @@
       <selection activeCell="N154" sqref="N154:P157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1698,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1714,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1730,7 +1733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1746,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1762,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1778,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1862,7 +1865,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1887,7 +1890,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1912,7 +1915,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1937,7 +1940,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1953,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1969,7 +1972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2074,7 +2077,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2120,7 +2123,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2166,7 +2169,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2212,7 +2215,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2228,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2244,7 +2247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2352,7 +2355,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2401,7 +2404,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2450,7 +2453,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2499,7 +2502,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2515,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2531,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2606,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2622,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2638,7 +2641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2654,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2670,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2686,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2770,7 +2773,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2795,7 +2798,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2820,7 +2823,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2845,7 +2848,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2861,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2877,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2961,7 +2964,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2986,7 +2989,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3011,7 +3014,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3036,7 +3039,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3052,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3068,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3152,7 +3155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3177,7 +3180,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3202,7 +3205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3227,7 +3230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3243,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3259,7 +3262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3334,7 +3337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3350,7 +3353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3366,7 +3369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3382,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3398,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3414,7 +3417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3489,7 +3492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3505,7 +3508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3521,7 +3524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3537,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3553,7 +3556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3569,7 +3572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3644,7 +3647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3660,7 +3663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3676,7 +3679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3692,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3708,7 +3711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3724,7 +3727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3799,7 +3802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3815,7 +3818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3831,7 +3834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3847,7 +3850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3863,7 +3866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3879,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3954,7 +3957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3970,7 +3973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3986,7 +3989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4002,7 +4005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4018,7 +4021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4034,7 +4037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4118,7 +4121,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4143,7 +4146,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4168,7 +4171,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4193,7 +4196,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4209,7 +4212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4225,7 +4228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4330,7 +4333,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4376,7 +4379,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4422,7 +4425,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4468,7 +4471,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4484,7 +4487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4500,7 +4503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4608,7 +4611,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4657,7 +4660,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4706,7 +4709,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4755,7 +4758,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4771,7 +4774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4787,7 +4790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4862,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4878,7 +4881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4894,7 +4897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4910,7 +4913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4926,7 +4929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4942,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>102</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5026,7 +5029,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5051,7 +5054,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5076,7 +5079,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5101,7 +5104,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5117,7 +5120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5133,7 +5136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5217,7 +5220,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5242,7 +5245,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5267,7 +5270,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5292,7 +5295,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5308,7 +5311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5324,7 +5327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>106</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5408,7 +5411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5433,7 +5436,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5458,7 +5461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5483,7 +5486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5499,7 +5502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5515,7 +5518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>108</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5590,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5606,7 +5609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5622,7 +5625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5638,7 +5641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5654,7 +5657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5670,7 +5673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>110</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5745,7 +5748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5761,7 +5764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5777,7 +5780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5793,7 +5796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5809,7 +5812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5825,7 +5828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>111</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5900,7 +5903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5916,7 +5919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5932,7 +5935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5948,7 +5951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5964,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5980,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6055,7 +6058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6071,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6087,7 +6090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6103,7 +6106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6119,7 +6122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6571,11 +6574,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6585,13 +6583,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6650,7 +6648,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6666,7 +6664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6682,7 +6680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6698,7 +6696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6714,7 +6712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6730,7 +6728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6746,7 +6744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -6805,7 +6803,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6821,7 +6819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6837,7 +6835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6853,7 +6851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6869,7 +6867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6885,7 +6883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6901,7 +6899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6976,7 +6974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6992,7 +6990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7008,7 +7006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7024,7 +7022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7040,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7056,7 +7054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -7115,7 +7113,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7131,7 +7129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7147,7 +7145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7163,7 +7161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7179,7 +7177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7195,7 +7193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7211,7 +7209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7270,7 +7268,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7286,7 +7284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7302,7 +7300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7318,7 +7316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7334,7 +7332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7350,7 +7348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7366,7 +7364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -7425,7 +7423,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7441,7 +7439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7457,7 +7455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7473,7 +7471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7489,7 +7487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7505,7 +7503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7521,7 +7519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -7580,7 +7578,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7596,7 +7594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7612,7 +7610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7628,7 +7626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7644,7 +7642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7660,7 +7658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7676,7 +7674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -7735,7 +7733,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7751,7 +7749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7767,7 +7765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7783,7 +7781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7799,7 +7797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7815,7 +7813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7831,7 +7829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7890,7 +7888,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7906,7 +7904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7922,7 +7920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7938,7 +7936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7954,7 +7952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7970,7 +7968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7986,7 +7984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -8045,7 +8043,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8061,7 +8059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8077,7 +8075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8093,7 +8091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8109,7 +8107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8125,7 +8123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8325,11 +8323,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8339,13 +8332,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8404,7 +8397,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8420,7 +8413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8436,7 +8429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8452,7 +8445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8468,7 +8461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8484,7 +8477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8500,7 +8493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8559,7 +8552,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8575,7 +8568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8591,7 +8584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8607,7 +8600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8623,7 +8616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8639,7 +8632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8655,7 +8648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -8714,7 +8707,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8730,7 +8723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8746,7 +8739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8762,7 +8755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8778,7 +8771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8794,7 +8787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8810,7 +8803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -8869,7 +8862,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8885,7 +8878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8901,7 +8894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8917,7 +8910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8933,7 +8926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8949,7 +8942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8965,7 +8958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9024,7 +9017,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9040,7 +9033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9056,7 +9049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9072,7 +9065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9088,7 +9081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9104,7 +9097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9120,7 +9113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -9179,7 +9172,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9195,7 +9188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9211,7 +9204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9227,7 +9220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9243,7 +9236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9259,7 +9252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9275,7 +9268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -9334,7 +9327,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9350,7 +9343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9366,7 +9359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9382,7 +9375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9398,7 +9391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9414,7 +9407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9430,7 +9423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9489,7 +9482,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9505,7 +9498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9521,7 +9514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9537,7 +9530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9553,7 +9546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9569,7 +9562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9585,7 +9578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -9644,7 +9637,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9660,7 +9653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9676,7 +9669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9692,7 +9685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9708,7 +9701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9724,7 +9717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9740,7 +9733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -9799,7 +9792,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9815,7 +9808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9831,7 +9824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9847,7 +9840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9863,7 +9856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9879,7 +9872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9895,7 +9888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -9954,7 +9947,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9970,7 +9963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9986,7 +9979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10002,7 +9995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10018,7 +10011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10034,7 +10027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10050,7 +10043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -10109,7 +10102,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10125,7 +10118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10141,7 +10134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10157,7 +10150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10173,7 +10166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10189,7 +10182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10425,11 +10418,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10439,18 +10427,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10460,18 +10443,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10483,12 +10461,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10517,7 +10495,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10538,7 +10516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10559,7 +10537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10580,7 +10558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10601,7 +10579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10622,7 +10600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -10643,7 +10621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10672,7 +10650,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10693,7 +10671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10714,7 +10692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10735,7 +10713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10756,7 +10734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10777,7 +10755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -10798,7 +10776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10827,7 +10805,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10848,7 +10826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10869,7 +10847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10890,7 +10868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10911,7 +10889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10932,7 +10910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -11281,11 +11259,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11295,14 +11268,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'Transfer Definitions'!A9</f>
         <v>Migration Type 1</v>
@@ -11362,7 +11335,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF('Transfer Definitions'!C10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11388,7 +11361,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF('Transfer Definitions'!D10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11414,7 +11387,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('Transfer Definitions'!E10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11440,7 +11413,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF('Transfer Definitions'!F10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11466,7 +11439,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF('Transfer Definitions'!G10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11492,7 +11465,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF('Transfer Definitions'!B11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11518,7 +11491,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF('Transfer Definitions'!D11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11544,7 +11517,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF('Transfer Definitions'!E11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11570,7 +11543,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF('Transfer Definitions'!F11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11596,7 +11569,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF('Transfer Definitions'!G11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11622,7 +11595,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF('Transfer Definitions'!B12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11648,7 +11621,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF('Transfer Definitions'!C12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11674,7 +11647,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF('Transfer Definitions'!E12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11700,7 +11673,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF('Transfer Definitions'!F12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11726,7 +11699,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF('Transfer Definitions'!G12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11752,7 +11725,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF('Transfer Definitions'!B13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11778,7 +11751,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>IF('Transfer Definitions'!C13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11804,7 +11777,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>IF('Transfer Definitions'!D13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11830,7 +11803,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>IF('Transfer Definitions'!F13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11856,7 +11829,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>IF('Transfer Definitions'!G13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11882,7 +11855,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>IF('Transfer Definitions'!B14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11908,7 +11881,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF('Transfer Definitions'!C14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11934,7 +11907,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF('Transfer Definitions'!D14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11960,7 +11933,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF('Transfer Definitions'!E14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11986,7 +11959,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF('Transfer Definitions'!G14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12012,7 +11985,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF('Transfer Definitions'!B15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12038,7 +12011,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF('Transfer Definitions'!C15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12064,7 +12037,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF('Transfer Definitions'!D15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12090,7 +12063,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF('Transfer Definitions'!E15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12116,7 +12089,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF('Transfer Definitions'!F15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12142,7 +12115,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>'Transfer Definitions'!A17</f>
         <v>Migration Type 2</v>
@@ -12202,7 +12175,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>IF('Transfer Definitions'!C18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12228,7 +12201,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>IF('Transfer Definitions'!D18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12254,7 +12227,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>IF('Transfer Definitions'!E18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12280,7 +12253,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>IF('Transfer Definitions'!F18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12306,7 +12279,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>IF('Transfer Definitions'!G18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12332,7 +12305,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>IF('Transfer Definitions'!B19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12358,7 +12331,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>IF('Transfer Definitions'!D19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12384,7 +12357,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>IF('Transfer Definitions'!E19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12410,7 +12383,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>IF('Transfer Definitions'!F19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12436,7 +12409,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>IF('Transfer Definitions'!G19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12462,7 +12435,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>IF('Transfer Definitions'!B20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12488,7 +12461,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>IF('Transfer Definitions'!C20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12514,7 +12487,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>IF('Transfer Definitions'!E20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12540,7 +12513,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>IF('Transfer Definitions'!F20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12566,7 +12539,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>IF('Transfer Definitions'!G20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12592,7 +12565,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF('Transfer Definitions'!B21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12618,7 +12591,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>IF('Transfer Definitions'!C21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12644,7 +12617,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>IF('Transfer Definitions'!D21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12670,7 +12643,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>IF('Transfer Definitions'!F21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12696,7 +12669,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>IF('Transfer Definitions'!G21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12722,7 +12695,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>IF('Transfer Definitions'!B22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12748,7 +12721,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>IF('Transfer Definitions'!C22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12774,7 +12747,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>IF('Transfer Definitions'!D22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12800,7 +12773,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>IF('Transfer Definitions'!E22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12826,7 +12799,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>IF('Transfer Definitions'!G22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12852,7 +12825,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>IF('Transfer Definitions'!B23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12878,7 +12851,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>IF('Transfer Definitions'!C23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12904,7 +12877,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>IF('Transfer Definitions'!D23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12930,7 +12903,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>IF('Transfer Definitions'!E23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12956,7 +12929,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF('Transfer Definitions'!F23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -13166,11 +13139,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13178,17 +13146,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -13247,7 +13215,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13311,7 +13279,7 @@
         <v>586330</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13375,7 +13343,7 @@
         <v>939479</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13439,7 +13407,7 @@
         <v>6642412.9999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13503,7 +13471,7 @@
         <v>1327603.9999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13519,7 +13487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13535,7 +13503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -13594,13 +13562,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
@@ -13658,7 +13626,7 @@
         <v>109426.4</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13674,7 +13642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13690,7 +13658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13706,7 +13674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13722,7 +13690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13738,7 +13706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -13797,7 +13765,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13861,7 +13829,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13925,7 +13893,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13989,7 +13957,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14053,7 +14021,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14069,7 +14037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14143,11 +14111,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14159,13 +14122,13 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -14224,7 +14187,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14248,7 +14211,7 @@
         <v>2768.1619000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14272,7 +14235,7 @@
         <v>4415.6448</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14296,7 +14259,7 @@
         <v>63663.167000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14320,7 +14283,7 @@
         <v>12629.157499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14336,7 +14299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14352,7 +14315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14374,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14427,7 +14390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14443,7 +14406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14459,7 +14422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14475,7 +14438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14491,7 +14454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14507,7 +14470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -14566,7 +14529,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14582,7 +14545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14598,7 +14561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14614,7 +14577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14630,7 +14593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14646,7 +14609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14662,7 +14625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -14721,7 +14684,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14737,7 +14700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14753,7 +14716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14769,7 +14732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14785,7 +14748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14801,7 +14764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14817,7 +14780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -14876,7 +14839,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14892,7 +14855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14908,7 +14871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14924,7 +14887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14940,7 +14903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14956,7 +14919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14972,7 +14935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -15031,7 +14994,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15047,7 +15010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15063,7 +15026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15079,7 +15042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15095,7 +15058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15111,7 +15074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15127,7 +15090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -15186,7 +15149,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15202,7 +15165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15218,7 +15181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15234,7 +15197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15250,7 +15213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15266,7 +15229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15282,7 +15245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -15341,7 +15304,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15357,7 +15320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15373,7 +15336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15389,7 +15352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15405,7 +15368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15421,7 +15384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15437,7 +15400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -15496,7 +15459,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15512,7 +15475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15528,7 +15491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15544,7 +15507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15560,7 +15523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15576,7 +15539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15592,7 +15555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -15651,7 +15614,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15667,7 +15630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15683,7 +15646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15699,7 +15662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15715,7 +15678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15731,7 +15694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15747,7 +15710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -15806,7 +15769,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15822,7 +15785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15838,7 +15801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15854,7 +15817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15870,7 +15833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15886,7 +15849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15902,7 +15865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15961,7 +15924,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15977,7 +15940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15993,7 +15956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16009,7 +15972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16025,7 +15988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16041,7 +16004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16057,7 +16020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -16116,7 +16079,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16132,7 +16095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16148,7 +16111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16164,7 +16127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16180,7 +16143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16196,7 +16159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16212,7 +16175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -16271,7 +16234,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16287,7 +16250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16303,7 +16266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16319,7 +16282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16335,7 +16298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16351,7 +16314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16367,7 +16330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -16426,7 +16389,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16442,7 +16405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16458,7 +16421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16474,7 +16437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16490,7 +16453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16506,7 +16469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16522,7 +16485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -16581,7 +16544,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16597,7 +16560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16613,7 +16576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16629,7 +16592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16645,7 +16608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16661,7 +16624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16677,7 +16640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -16736,7 +16699,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16752,7 +16715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16768,7 +16731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16784,7 +16747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16800,7 +16763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16816,7 +16779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16832,7 +16795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -16891,7 +16854,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16907,7 +16870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16923,7 +16886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16939,7 +16902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16955,7 +16918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16971,7 +16934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16987,7 +16950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -17046,7 +17009,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17062,7 +17025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17078,7 +17041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17094,7 +17057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17110,7 +17073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17126,7 +17089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17142,7 +17105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>105</v>
       </c>
@@ -17201,7 +17164,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17217,7 +17180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17233,7 +17196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17249,7 +17212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17265,7 +17228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17281,7 +17244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17297,7 +17260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>107</v>
       </c>
@@ -17356,7 +17319,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17372,7 +17335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17388,7 +17351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17404,7 +17367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17420,7 +17383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17436,7 +17399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17452,7 +17415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>109</v>
       </c>
@@ -17511,7 +17474,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17527,7 +17490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17543,7 +17506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17559,7 +17522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17575,7 +17538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17591,7 +17554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18008,11 +17971,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18024,13 +17982,13 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -18089,7 +18047,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18105,7 +18063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18121,7 +18079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18137,7 +18095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18153,7 +18111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18169,7 +18127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18185,7 +18143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -18244,7 +18202,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18260,7 +18218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18276,7 +18234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18292,7 +18250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18308,7 +18266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18324,7 +18282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18340,7 +18298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -18399,7 +18357,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18415,7 +18373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18431,7 +18389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18447,7 +18405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18463,7 +18421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18479,7 +18437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18495,7 +18453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -18554,7 +18512,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18570,7 +18528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18586,7 +18544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18602,7 +18560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18618,7 +18576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18634,7 +18592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18650,7 +18608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -18709,7 +18667,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18725,7 +18683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18741,7 +18699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18757,7 +18715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18773,7 +18731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18789,7 +18747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18805,7 +18763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -18864,7 +18822,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18880,7 +18838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18896,7 +18854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18912,7 +18870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18928,7 +18886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18944,7 +18902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18960,7 +18918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -19019,7 +18977,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19035,7 +18993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19051,7 +19009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19067,7 +19025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19083,7 +19041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19099,7 +19057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19115,7 +19073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -19174,7 +19132,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19190,7 +19148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19206,7 +19164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19222,7 +19180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19238,7 +19196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19254,7 +19212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19270,7 +19228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -19329,7 +19287,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19345,7 +19303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19361,7 +19319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19377,7 +19335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19393,7 +19351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19409,7 +19367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19425,7 +19383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -19484,7 +19442,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19500,7 +19458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19516,7 +19474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19532,7 +19490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19548,7 +19506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19564,7 +19522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19764,11 +19722,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19776,17 +19729,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19845,7 +19798,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19879,7 +19832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19913,7 +19866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19947,7 +19900,7 @@
         <v>1834.5161619598503</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19981,7 +19934,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19997,7 +19950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20013,7 +19966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -20072,7 +20025,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20106,7 +20059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20140,7 +20093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20162,7 +20115,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20184,7 +20137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20200,7 +20153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20216,7 +20169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -20275,7 +20228,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20297,7 +20250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20331,7 +20284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20353,7 +20306,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20375,7 +20328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20391,7 +20344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20407,7 +20360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -20466,7 +20419,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20500,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20534,7 +20487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20568,7 +20521,7 @@
         <v>15.483838040149749</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20602,7 +20555,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20618,7 +20571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20634,7 +20587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -20693,7 +20646,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20727,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20761,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20783,7 +20736,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20805,7 +20758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20821,7 +20774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20837,7 +20790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -20896,7 +20849,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20918,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20952,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20974,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20996,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21012,7 +20965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21051,11 +21004,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -21065,13 +21013,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -21130,7 +21078,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21146,7 +21094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21162,7 +21110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21178,7 +21126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21194,7 +21142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21210,7 +21158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21226,7 +21174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -21285,7 +21233,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21301,7 +21249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21317,7 +21265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21333,7 +21281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21349,7 +21297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21365,7 +21313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21381,7 +21329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -21440,7 +21388,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21456,7 +21404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21472,7 +21420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21488,7 +21436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21504,7 +21452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21520,7 +21468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21536,7 +21484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -21595,7 +21543,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21611,7 +21559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21627,7 +21575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21643,7 +21591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21659,7 +21607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21675,7 +21623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21691,7 +21639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -21750,7 +21698,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21766,7 +21714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21782,7 +21730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21798,7 +21746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21814,7 +21762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21830,7 +21778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21846,7 +21794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -21905,7 +21853,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21921,7 +21869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21937,7 +21885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21953,7 +21901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21969,7 +21917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21985,7 +21933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22001,7 +21949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -22060,7 +22008,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22076,7 +22024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22092,7 +22040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22108,7 +22056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22124,7 +22072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22140,7 +22088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22286,11 +22234,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -22302,13 +22245,13 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -22367,7 +22310,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22447,7 +22390,7 @@
         <v>568740.1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22463,7 +22406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22479,7 +22422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22495,7 +22438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22511,7 +22454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22527,7 +22470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -22586,7 +22529,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22650,7 +22593,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22666,7 +22609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22682,7 +22625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22698,7 +22641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22714,7 +22657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22730,7 +22673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -22789,7 +22732,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22805,7 +22748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22821,7 +22764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22837,7 +22780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22853,7 +22796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22869,7 +22812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22885,7 +22828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -22944,7 +22887,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22960,7 +22903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22976,7 +22919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22992,7 +22935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23008,7 +22951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23024,7 +22967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23040,7 +22983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -23099,7 +23042,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23115,7 +23058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23131,7 +23074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23147,7 +23090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23163,7 +23106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23179,7 +23122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23195,7 +23138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -23254,7 +23197,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23270,7 +23213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23286,7 +23229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23302,7 +23245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23318,7 +23261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23334,7 +23277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23463,10 +23406,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -28,13 +23,13 @@
     <sheet name="Epidemic Characteristics" sheetId="14" r:id="rId14"/>
     <sheet name="Cascade Parameters" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -640,7 +635,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -648,21 +643,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,12 +1002,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -999,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1013,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1027,7 +1063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -1041,7 +1077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1055,7 +1091,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -1071,6 +1107,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1078,15 +1119,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1145,7 +1188,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1161,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1177,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1193,7 +1236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1209,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1225,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1241,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1300,7 +1343,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1316,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1332,7 +1375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1348,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1364,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1380,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1396,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1455,7 +1498,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1471,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1487,7 +1530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1503,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1519,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1535,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1609,6 +1652,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1616,17 +1664,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154:P157"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +1733,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1701,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1717,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1733,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1749,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1765,7 +1813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1781,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1865,7 +1913,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1890,7 +1938,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1915,7 +1963,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1940,7 +1988,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1956,7 +2004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1972,7 +2020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2077,7 +2125,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2123,7 +2171,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2169,7 +2217,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2215,7 +2263,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2231,7 +2279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2247,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2306,7 +2354,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2355,7 +2403,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2404,7 +2452,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2453,7 +2501,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2502,7 +2550,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2518,7 +2566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2534,7 +2582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2593,7 +2641,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2609,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2625,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2641,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2657,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2673,7 +2721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2689,7 +2737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2748,7 +2796,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2773,7 +2821,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2798,7 +2846,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2823,7 +2871,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2848,7 +2896,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2864,7 +2912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2880,7 +2928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2939,7 +2987,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2964,7 +3012,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2989,7 +3037,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3014,7 +3062,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3039,7 +3087,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3055,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3071,7 +3119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3130,7 +3178,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3155,7 +3203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3180,7 +3228,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3205,7 +3253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3230,7 +3278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3246,7 +3294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3262,7 +3310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3321,7 +3369,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3337,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3353,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3369,7 +3417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3385,7 +3433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3401,7 +3449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3417,7 +3465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3492,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3508,7 +3556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3524,7 +3572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3540,7 +3588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3556,7 +3604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3572,7 +3620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3631,7 +3679,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3647,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3663,7 +3711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3679,7 +3727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3695,7 +3743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3711,7 +3759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3727,7 +3775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3786,7 +3834,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3802,7 +3850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3818,7 +3866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3834,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3850,7 +3898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3866,7 +3914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3882,7 +3930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -3941,7 +3989,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3957,7 +4005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3973,7 +4021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3989,7 +4037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4005,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4021,7 +4069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4037,7 +4085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -4096,7 +4144,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4121,7 +4169,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4146,7 +4194,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4171,7 +4219,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4196,7 +4244,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4212,7 +4260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4228,7 +4276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -4287,7 +4335,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4333,7 +4381,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4379,7 +4427,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4425,7 +4473,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4471,7 +4519,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4487,7 +4535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4503,7 +4551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -4562,7 +4610,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4611,7 +4659,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4660,7 +4708,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4709,7 +4757,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4758,7 +4806,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4774,7 +4822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4790,7 +4838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -4849,7 +4897,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4865,7 +4913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4881,7 +4929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4897,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4913,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4929,7 +4977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4945,7 +4993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>102</v>
       </c>
@@ -5004,7 +5052,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5029,7 +5077,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5054,7 +5102,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5079,7 +5127,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5104,7 +5152,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5120,7 +5168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5136,7 +5184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -5195,7 +5243,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5220,7 +5268,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5245,7 +5293,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5270,7 +5318,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5295,7 +5343,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5311,7 +5359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5327,7 +5375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>106</v>
       </c>
@@ -5386,7 +5434,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5411,7 +5459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5436,7 +5484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5461,7 +5509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5486,7 +5534,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5502,7 +5550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5518,7 +5566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>108</v>
       </c>
@@ -5577,7 +5625,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5593,7 +5641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5609,7 +5657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5625,7 +5673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5641,7 +5689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5657,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5673,7 +5721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>110</v>
       </c>
@@ -5732,7 +5780,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5748,7 +5796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5764,7 +5812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5780,7 +5828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5796,7 +5844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5812,7 +5860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5828,7 +5876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>111</v>
       </c>
@@ -5887,7 +5935,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5903,7 +5951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5919,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5935,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5951,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5967,7 +6015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5983,7 +6031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -6042,7 +6090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6058,7 +6106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6074,7 +6122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6090,7 +6138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6106,7 +6154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6122,7 +6170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6574,6 +6622,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6581,15 +6634,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6648,7 +6703,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6664,7 +6719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6680,7 +6735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6696,7 +6751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6712,7 +6767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6728,7 +6783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6744,7 +6799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6819,7 +6874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6835,7 +6890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6851,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6867,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6883,7 +6938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6899,7 +6954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6958,7 +7013,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6974,7 +7029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6990,7 +7045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7006,7 +7061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7022,7 +7077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7038,7 +7093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7054,7 +7109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -7113,7 +7168,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7129,7 +7184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7145,7 +7200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7161,7 +7216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7177,7 +7232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7193,7 +7248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7209,7 +7264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7268,7 +7323,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7284,7 +7339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7300,7 +7355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7316,7 +7371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7332,7 +7387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7348,7 +7403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7364,7 +7419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -7423,7 +7478,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7439,7 +7494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7455,7 +7510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7471,7 +7526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7487,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7503,7 +7558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7519,7 +7574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -7578,7 +7633,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7594,7 +7649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7610,7 +7665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7626,7 +7681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7642,7 +7697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7658,7 +7713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7674,7 +7729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -7733,7 +7788,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7749,7 +7804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7765,7 +7820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7781,7 +7836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7797,7 +7852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7813,7 +7868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7829,7 +7884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7888,7 +7943,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7904,7 +7959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7920,7 +7975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7936,7 +7991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7952,7 +8007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7968,7 +8023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7984,7 +8039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -8043,7 +8098,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8059,7 +8114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8075,7 +8130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8091,7 +8146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8107,7 +8162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8123,7 +8178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8323,6 +8378,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8330,15 +8390,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8397,7 +8459,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8405,15 +8467,18 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.7,"N.A.")</f>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8421,15 +8486,18 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8437,15 +8505,18 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8453,15 +8524,18 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8477,7 +8551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8493,7 +8567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8552,7 +8626,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8560,15 +8634,18 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.7,"N.A.")</f>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8576,15 +8653,18 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8592,15 +8672,18 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8608,15 +8691,18 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8632,7 +8718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8648,7 +8734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -8707,7 +8793,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8723,7 +8809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8739,7 +8825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8755,7 +8841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8771,7 +8857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8787,7 +8873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8803,7 +8889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -8862,7 +8948,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8870,15 +8956,45 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.03,"N.A.")</f>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>0.08</v>
+      </c>
+      <c r="I26">
+        <v>0.09</v>
+      </c>
+      <c r="J26">
+        <v>0.02</v>
+      </c>
+      <c r="K26">
+        <v>0.06</v>
+      </c>
+      <c r="L26">
+        <v>0.06</v>
+      </c>
+      <c r="M26">
+        <v>0.06</v>
+      </c>
+      <c r="N26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.05</v>
+      </c>
+      <c r="Q26">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8886,15 +9002,45 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0.08</v>
+      </c>
+      <c r="I27">
+        <v>0.09</v>
+      </c>
+      <c r="J27">
+        <v>0.02</v>
+      </c>
+      <c r="K27">
+        <v>0.06</v>
+      </c>
+      <c r="L27">
+        <v>0.06</v>
+      </c>
+      <c r="M27">
+        <v>0.06</v>
+      </c>
+      <c r="N27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.05</v>
+      </c>
+      <c r="Q27">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8902,15 +9048,45 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0.08</v>
+      </c>
+      <c r="I28">
+        <v>0.09</v>
+      </c>
+      <c r="J28">
+        <v>0.02</v>
+      </c>
+      <c r="K28">
+        <v>0.06</v>
+      </c>
+      <c r="L28">
+        <v>0.06</v>
+      </c>
+      <c r="M28">
+        <v>0.06</v>
+      </c>
+      <c r="N28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.05</v>
+      </c>
+      <c r="Q28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8918,15 +9094,45 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0.08</v>
+      </c>
+      <c r="I29">
+        <v>0.09</v>
+      </c>
+      <c r="J29">
+        <v>0.02</v>
+      </c>
+      <c r="K29">
+        <v>0.06</v>
+      </c>
+      <c r="L29">
+        <v>0.06</v>
+      </c>
+      <c r="M29">
+        <v>0.06</v>
+      </c>
+      <c r="N29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P29">
+        <v>0.05</v>
+      </c>
+      <c r="Q29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8942,7 +9148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8958,7 +9164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9017,7 +9223,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9025,15 +9231,24 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.17,"N.A.")</f>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0.15</v>
+      </c>
+      <c r="O34">
+        <v>0.1</v>
+      </c>
+      <c r="P34">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9041,15 +9256,24 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0.15</v>
+      </c>
+      <c r="O35">
+        <v>0.1</v>
+      </c>
+      <c r="P35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9057,15 +9281,24 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0.15</v>
+      </c>
+      <c r="O36">
+        <v>0.1</v>
+      </c>
+      <c r="P36">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9073,15 +9306,24 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.15</v>
+      </c>
+      <c r="O37">
+        <v>0.1</v>
+      </c>
+      <c r="P37">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9097,7 +9339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9113,7 +9355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -9172,7 +9414,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9188,7 +9430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9204,7 +9446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9220,7 +9462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9236,7 +9478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9252,7 +9494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9268,7 +9510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -9327,7 +9569,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9343,7 +9585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9359,7 +9601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9375,7 +9617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9391,7 +9633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9407,7 +9649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9423,7 +9665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9482,7 +9724,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9498,7 +9740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9514,7 +9756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9530,7 +9772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9546,7 +9788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9562,7 +9804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9578,7 +9820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -9637,7 +9879,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9653,7 +9895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9669,7 +9911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9685,7 +9927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9701,7 +9943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9717,7 +9959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9733,7 +9975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -9792,7 +10034,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9800,15 +10042,45 @@
       <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="str">
         <f t="shared" ref="C74:C79" si="9">IF(SUMPRODUCT(--(E74:T74&lt;&gt;""))=0,0.03,"N.A.")</f>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>0.08</v>
+      </c>
+      <c r="I74">
+        <v>0.09</v>
+      </c>
+      <c r="J74">
+        <v>0.02</v>
+      </c>
+      <c r="K74">
+        <v>0.06</v>
+      </c>
+      <c r="L74">
+        <v>0.06</v>
+      </c>
+      <c r="M74">
+        <v>0.06</v>
+      </c>
+      <c r="N74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P74">
+        <v>0.05</v>
+      </c>
+      <c r="Q74">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9816,15 +10088,45 @@
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="str">
         <f t="shared" si="9"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>0.08</v>
+      </c>
+      <c r="I75">
+        <v>0.09</v>
+      </c>
+      <c r="J75">
+        <v>0.02</v>
+      </c>
+      <c r="K75">
+        <v>0.06</v>
+      </c>
+      <c r="L75">
+        <v>0.06</v>
+      </c>
+      <c r="M75">
+        <v>0.06</v>
+      </c>
+      <c r="N75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P75">
+        <v>0.05</v>
+      </c>
+      <c r="Q75">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9832,15 +10134,45 @@
       <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="str">
         <f t="shared" si="9"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>0.08</v>
+      </c>
+      <c r="I76">
+        <v>0.09</v>
+      </c>
+      <c r="J76">
+        <v>0.02</v>
+      </c>
+      <c r="K76">
+        <v>0.06</v>
+      </c>
+      <c r="L76">
+        <v>0.06</v>
+      </c>
+      <c r="M76">
+        <v>0.06</v>
+      </c>
+      <c r="N76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.05</v>
+      </c>
+      <c r="Q76">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9848,15 +10180,45 @@
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="str">
         <f t="shared" si="9"/>
-        <v>0.03</v>
+        <v>N.A.</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>0.08</v>
+      </c>
+      <c r="I77">
+        <v>0.09</v>
+      </c>
+      <c r="J77">
+        <v>0.02</v>
+      </c>
+      <c r="K77">
+        <v>0.06</v>
+      </c>
+      <c r="L77">
+        <v>0.06</v>
+      </c>
+      <c r="M77">
+        <v>0.06</v>
+      </c>
+      <c r="N77">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O77">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P77">
+        <v>0.05</v>
+      </c>
+      <c r="Q77">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9872,7 +10234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9888,7 +10250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -9947,7 +10309,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9955,15 +10317,24 @@
       <c r="B82" t="s">
         <v>10</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="str">
         <f t="shared" ref="C82:C87" si="10">IF(SUMPRODUCT(--(E82:T82&lt;&gt;""))=0,0.17,"N.A.")</f>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>0.15</v>
+      </c>
+      <c r="O82">
+        <v>0.1</v>
+      </c>
+      <c r="P82">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9971,15 +10342,24 @@
       <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="str">
         <f t="shared" si="10"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>0.15</v>
+      </c>
+      <c r="O83">
+        <v>0.1</v>
+      </c>
+      <c r="P83">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9987,15 +10367,24 @@
       <c r="B84" t="s">
         <v>10</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="str">
         <f t="shared" si="10"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>0.15</v>
+      </c>
+      <c r="O84">
+        <v>0.1</v>
+      </c>
+      <c r="P84">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10003,15 +10392,24 @@
       <c r="B85" t="s">
         <v>10</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="str">
         <f t="shared" si="10"/>
-        <v>0.17</v>
+        <v>N.A.</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0.15</v>
+      </c>
+      <c r="O85">
+        <v>0.1</v>
+      </c>
+      <c r="P85">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10027,7 +10425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10043,7 +10441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -10102,7 +10500,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10118,7 +10516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10134,7 +10532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10150,7 +10548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10166,7 +10564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10182,7 +10580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10418,6 +10816,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10427,13 +10830,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10443,13 +10851,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10458,15 +10871,15 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10495,7 +10908,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10516,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10537,7 +10950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10558,7 +10971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10573,13 +10986,13 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10600,7 +11013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -10621,7 +11034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10650,7 +11063,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10671,7 +11084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10692,7 +11105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10713,7 +11126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10734,7 +11147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10755,7 +11168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -10776,7 +11189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10805,7 +11218,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -10826,7 +11239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -10847,7 +11260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -10868,7 +11281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -10889,7 +11302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -10910,7 +11323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -11259,6 +11672,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11268,14 +11686,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="str">
         <f>'Transfer Definitions'!A9</f>
         <v>Migration Type 1</v>
@@ -11335,7 +11753,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>IF('Transfer Definitions'!C10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11361,7 +11779,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="str">
         <f>IF('Transfer Definitions'!D10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11387,7 +11805,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="str">
         <f>IF('Transfer Definitions'!E10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11413,7 +11831,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="str">
         <f>IF('Transfer Definitions'!F10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11439,7 +11857,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="str">
         <f>IF('Transfer Definitions'!G10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -11465,7 +11883,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="str">
         <f>IF('Transfer Definitions'!B11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11491,7 +11909,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="str">
         <f>IF('Transfer Definitions'!D11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11517,7 +11935,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="str">
         <f>IF('Transfer Definitions'!E11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11543,7 +11961,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" t="str">
         <f>IF('Transfer Definitions'!F11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11569,7 +11987,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" t="str">
         <f>IF('Transfer Definitions'!G11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -11595,7 +12013,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" t="str">
         <f>IF('Transfer Definitions'!B12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11621,7 +12039,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" t="str">
         <f>IF('Transfer Definitions'!C12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11647,7 +12065,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" t="str">
         <f>IF('Transfer Definitions'!E12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11673,7 +12091,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" t="str">
         <f>IF('Transfer Definitions'!F12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11699,7 +12117,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" t="str">
         <f>IF('Transfer Definitions'!G12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -11725,7 +12143,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="str">
         <f>IF('Transfer Definitions'!B13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11751,7 +12169,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="str">
         <f>IF('Transfer Definitions'!C13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11777,7 +12195,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="str">
         <f>IF('Transfer Definitions'!D13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11803,7 +12221,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="str">
         <f>IF('Transfer Definitions'!F13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11829,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="str">
         <f>IF('Transfer Definitions'!G13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -11855,7 +12273,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="str">
         <f>IF('Transfer Definitions'!B14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11881,7 +12299,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="str">
         <f>IF('Transfer Definitions'!C14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11907,7 +12325,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="str">
         <f>IF('Transfer Definitions'!D14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11933,7 +12351,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>IF('Transfer Definitions'!E14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11959,7 +12377,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="str">
         <f>IF('Transfer Definitions'!G14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -11985,7 +12403,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="str">
         <f>IF('Transfer Definitions'!B15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12011,7 +12429,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="str">
         <f>IF('Transfer Definitions'!C15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12037,7 +12455,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="str">
         <f>IF('Transfer Definitions'!D15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12063,7 +12481,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="str">
         <f>IF('Transfer Definitions'!E15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12089,7 +12507,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="str">
         <f>IF('Transfer Definitions'!F15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12115,7 +12533,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" t="str">
         <f>'Transfer Definitions'!A17</f>
         <v>Migration Type 2</v>
@@ -12175,7 +12593,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" t="str">
         <f>IF('Transfer Definitions'!C18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12201,7 +12619,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" t="str">
         <f>IF('Transfer Definitions'!D18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12227,7 +12645,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" t="str">
         <f>IF('Transfer Definitions'!E18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12253,7 +12671,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" t="str">
         <f>IF('Transfer Definitions'!F18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12279,7 +12697,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" t="str">
         <f>IF('Transfer Definitions'!G18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -12305,7 +12723,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" t="str">
         <f>IF('Transfer Definitions'!B19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12331,7 +12749,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" t="str">
         <f>IF('Transfer Definitions'!D19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12357,7 +12775,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" t="str">
         <f>IF('Transfer Definitions'!E19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12383,7 +12801,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" t="str">
         <f>IF('Transfer Definitions'!F19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12409,7 +12827,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" t="str">
         <f>IF('Transfer Definitions'!G19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -12435,7 +12853,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" t="str">
         <f>IF('Transfer Definitions'!B20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12461,7 +12879,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" t="str">
         <f>IF('Transfer Definitions'!C20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12487,7 +12905,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" t="str">
         <f>IF('Transfer Definitions'!E20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12513,7 +12931,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" t="str">
         <f>IF('Transfer Definitions'!F20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12539,7 +12957,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" t="str">
         <f>IF('Transfer Definitions'!G20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -12565,7 +12983,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="str">
         <f>IF('Transfer Definitions'!B21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12591,7 +13009,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="str">
         <f>IF('Transfer Definitions'!C21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12617,7 +13035,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="str">
         <f>IF('Transfer Definitions'!D21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12643,7 +13061,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="str">
         <f>IF('Transfer Definitions'!F21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12669,7 +13087,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="str">
         <f>IF('Transfer Definitions'!G21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -12695,7 +13113,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="str">
         <f>IF('Transfer Definitions'!B22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12721,7 +13139,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="str">
         <f>IF('Transfer Definitions'!C22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12747,7 +13165,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="str">
         <f>IF('Transfer Definitions'!D22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12773,7 +13191,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="str">
         <f>IF('Transfer Definitions'!E22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12799,7 +13217,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="str">
         <f>IF('Transfer Definitions'!G22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -12825,7 +13243,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="str">
         <f>IF('Transfer Definitions'!B23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12851,7 +13269,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="str">
         <f>IF('Transfer Definitions'!C23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12877,7 +13295,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="str">
         <f>IF('Transfer Definitions'!D23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12903,7 +13321,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="str">
         <f>IF('Transfer Definitions'!E23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -12929,7 +13347,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="str">
         <f>IF('Transfer Definitions'!F23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -13139,6 +13557,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13146,17 +13569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -13215,7 +13638,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13279,7 +13702,7 @@
         <v>586330</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13343,7 +13766,7 @@
         <v>939479</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13407,7 +13830,7 @@
         <v>6642412.9999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13471,7 +13894,7 @@
         <v>1327603.9999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13487,7 +13910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13503,7 +13926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -13562,7 +13985,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13626,7 +14049,7 @@
         <v>109426.4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13642,7 +14065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13658,7 +14081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13674,7 +14097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13690,7 +14113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13706,7 +14129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -13765,7 +14188,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13829,7 +14252,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13893,7 +14316,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13957,7 +14380,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14021,7 +14444,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14037,7 +14460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14111,6 +14534,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14118,17 +14546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -14187,7 +14616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14202,16 +14631,16 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <f>'General Demographics'!P2*0.0042</f>
         <v>2211.8669999999997</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <f>'General Demographics'!R2*0.0049</f>
         <v>2768.1619000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14226,16 +14655,16 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <f>'General Demographics'!P3*0.0042</f>
         <v>3734.9339999999997</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <f>'General Demographics'!R3*0.0049</f>
         <v>4415.6448</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14250,16 +14679,16 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <f>'General Demographics'!P4*0.0096</f>
         <v>64749.388799999993</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <f>0.0095*'General Demographics'!R4</f>
         <v>63663.167000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14274,16 +14703,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <f>'General Demographics'!P5*0.0096</f>
         <v>12735.292800000001</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <f>0.0095*'General Demographics'!R5</f>
         <v>12629.157499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14299,7 +14728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14315,7 +14744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -14374,7 +14803,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14389,8 +14818,10 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14405,8 +14836,10 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14421,8 +14854,10 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14437,8 +14872,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14454,7 +14891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14470,7 +14907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -14529,7 +14966,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14544,8 +14981,10 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14560,8 +14999,10 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14576,8 +15017,10 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14592,8 +15035,10 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14609,7 +15054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14625,7 +15070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -14684,7 +15129,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14699,8 +15144,9 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14715,8 +15161,9 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14731,8 +15178,9 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14747,8 +15195,9 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14764,7 +15213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14780,7 +15229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -14839,7 +15288,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14854,8 +15303,9 @@
       <c r="D34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14870,8 +15320,9 @@
       <c r="D35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14886,8 +15337,9 @@
       <c r="D36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14902,8 +15354,9 @@
       <c r="D37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14919,7 +15372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14935,7 +15388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -14994,7 +15447,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15010,7 +15463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15026,7 +15479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15042,7 +15495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15058,7 +15511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15074,7 +15527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15090,7 +15543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -15149,7 +15602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15165,7 +15618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15181,7 +15634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15197,7 +15650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15213,7 +15666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15229,7 +15682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15245,7 +15698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -15304,7 +15757,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15320,7 +15773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15336,7 +15789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15352,7 +15805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15368,7 +15821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15384,7 +15837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15400,7 +15853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -15459,7 +15912,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15475,7 +15928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15491,7 +15944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15507,7 +15960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15523,7 +15976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15539,7 +15992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15555,7 +16008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -15614,7 +16067,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15630,7 +16083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15646,7 +16099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15662,7 +16115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15678,7 +16131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15694,7 +16147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15710,7 +16163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -15769,7 +16222,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15785,7 +16238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15801,7 +16254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15817,7 +16270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15833,7 +16286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15849,7 +16302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15865,7 +16318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15924,7 +16377,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15939,8 +16392,10 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15955,8 +16410,10 @@
       <c r="D91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15971,8 +16428,10 @@
       <c r="D92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15987,8 +16446,10 @@
       <c r="D93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16004,7 +16465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16020,7 +16481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -16079,7 +16540,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16095,7 +16556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16111,7 +16572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16127,7 +16588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16143,7 +16604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16159,7 +16620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16175,7 +16636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -16234,7 +16695,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16250,7 +16711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16266,7 +16727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16282,7 +16743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16298,7 +16759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16314,7 +16775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16330,7 +16791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -16389,7 +16850,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16405,7 +16866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16421,7 +16882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16437,7 +16898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16453,7 +16914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16469,7 +16930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16485,7 +16946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -16544,7 +17005,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16560,7 +17021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16576,7 +17037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16592,7 +17053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16608,7 +17069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16624,7 +17085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16640,7 +17101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -16699,7 +17160,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16715,7 +17176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16731,7 +17192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16747,7 +17208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16763,7 +17224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16779,7 +17240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16795,7 +17256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -16854,7 +17315,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -16870,7 +17331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -16886,7 +17347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -16902,7 +17363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -16918,7 +17379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -16934,7 +17395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -16950,7 +17411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -17009,7 +17470,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17025,7 +17486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17041,7 +17502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17057,7 +17518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17073,7 +17534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17089,7 +17550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17105,7 +17566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>105</v>
       </c>
@@ -17164,7 +17625,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17180,7 +17641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17196,7 +17657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17212,7 +17673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17228,7 +17689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17244,7 +17705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17260,7 +17721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>107</v>
       </c>
@@ -17319,7 +17780,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17335,7 +17796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17351,7 +17812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17367,7 +17828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17383,7 +17844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17399,7 +17860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17415,7 +17876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>109</v>
       </c>
@@ -17474,7 +17935,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -17490,7 +17951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -17506,7 +17967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -17522,7 +17983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -17538,7 +17999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -17554,7 +18015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -17971,6 +18432,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17978,17 +18444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -18047,7 +18513,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18063,7 +18529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18079,7 +18545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18094,8 +18560,9 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18111,7 +18578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18127,7 +18594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18143,7 +18610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -18202,7 +18669,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18218,7 +18685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18234,7 +18701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18250,7 +18717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18266,7 +18733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18282,7 +18749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18298,7 +18765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -18357,7 +18824,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18373,7 +18840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18389,7 +18856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18405,7 +18872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18421,7 +18888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18437,7 +18904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18453,7 +18920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -18512,7 +18979,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18528,7 +18995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18544,7 +19011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18560,7 +19027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18576,7 +19043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18592,7 +19059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18608,7 +19075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -18667,7 +19134,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18683,7 +19150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18699,7 +19166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18715,7 +19182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18731,7 +19198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18747,7 +19214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18763,7 +19230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -18822,7 +19289,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18838,7 +19305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18854,7 +19321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18870,7 +19337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18886,7 +19353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18902,7 +19369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18918,7 +19385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -18977,7 +19444,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18993,7 +19460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19009,7 +19476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19025,7 +19492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19041,7 +19508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19057,7 +19524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19073,7 +19540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -19132,7 +19599,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19148,7 +19615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19164,7 +19631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19180,7 +19647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19196,7 +19663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19212,7 +19679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19228,7 +19695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -19287,7 +19754,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19303,7 +19770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19319,7 +19786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19335,7 +19802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19351,7 +19818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19367,7 +19834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19383,7 +19850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -19442,7 +19909,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19458,7 +19925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19474,7 +19941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19490,7 +19957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19506,7 +19973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19522,7 +19989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19722,6 +20189,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19729,17 +20201,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19798,7 +20270,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19832,7 +20304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19866,7 +20338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19900,7 +20372,7 @@
         <v>1834.5161619598503</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19934,7 +20406,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19950,7 +20422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19966,7 +20438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -20025,7 +20497,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20059,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20093,7 +20565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20115,7 +20587,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20137,7 +20609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20153,7 +20625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20169,7 +20641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -20228,7 +20700,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20250,7 +20722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20284,7 +20756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20306,7 +20778,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20328,7 +20800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20344,7 +20816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20360,7 +20832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -20419,7 +20891,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20453,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20487,7 +20959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20521,7 +20993,7 @@
         <v>15.483838040149749</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20555,7 +21027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20571,7 +21043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20587,7 +21059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -20646,7 +21118,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20680,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20714,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20736,7 +21208,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20758,7 +21230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20774,7 +21246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20790,7 +21262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -20849,7 +21321,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20871,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20905,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20927,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20949,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20965,7 +21437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21003,7 +21475,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21011,15 +21487,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -21078,7 +21556,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21094,7 +21572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21110,7 +21588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21126,7 +21604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21142,7 +21620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21158,7 +21636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21174,7 +21652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -21233,7 +21711,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21249,7 +21727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21265,7 +21743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21281,7 +21759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21297,7 +21775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21313,7 +21791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21329,7 +21807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -21388,7 +21866,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21404,7 +21882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21420,7 +21898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21436,7 +21914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21452,7 +21930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21468,7 +21946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21484,7 +21962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -21543,7 +22021,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21551,15 +22029,18 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+      <c r="C26" t="str">
+        <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21567,15 +22048,18 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C31" si="3">IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21583,15 +22067,18 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21599,15 +22086,18 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21623,7 +22113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21639,7 +22129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -21698,7 +22188,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21714,7 +22204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21730,7 +22220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21746,7 +22236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21762,7 +22252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21778,7 +22268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21794,7 +22284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -21853,7 +22343,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21862,14 +22352,14 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,1,"N.A.")</f>
+        <f>IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21878,14 +22368,14 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C43:C47" si="5">IF(SUMPRODUCT(--(E43:T43&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21901,7 +22391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21917,7 +22407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21933,7 +22423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21949,7 +22439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -22008,7 +22498,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22024,7 +22514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22040,7 +22530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22056,7 +22546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22072,7 +22562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22088,7 +22578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22234,6 +22724,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -22245,13 +22740,13 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -22310,7 +22805,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22390,7 +22885,7 @@
         <v>568740.1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22406,7 +22901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22422,7 +22917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22438,7 +22933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22454,7 +22949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22470,7 +22965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -22529,7 +23024,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22593,7 +23088,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22609,7 +23104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22625,7 +23120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22641,7 +23136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22657,7 +23152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22673,7 +23168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -22732,7 +23227,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22748,7 +23243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22764,7 +23259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22780,7 +23275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22796,7 +23291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22812,7 +23307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22828,7 +23323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -22887,7 +23382,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22903,7 +23398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22919,7 +23414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22935,7 +23430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22951,7 +23446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22967,7 +23462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22983,7 +23478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -23042,7 +23537,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23058,7 +23553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23074,7 +23569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23090,7 +23585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23106,7 +23601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23122,7 +23617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23138,7 +23633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -23197,7 +23692,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23213,7 +23708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23229,7 +23724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23245,7 +23740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23261,7 +23756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23277,7 +23772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23406,5 +23901,10 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25040" windowHeight="14960" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -565,6 +565,9 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -635,8 +638,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -672,7 +679,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -686,6 +693,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -699,6 +708,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -996,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1103,6 +1114,16 @@
       </c>
       <c r="D7">
         <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6634,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6711,12 +6732,15 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6727,12 +6751,15 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6743,13 +6770,26 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="str">
@@ -6759,13 +6799,26 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="str">
@@ -6775,12 +6828,15 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -6791,12 +6847,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -6866,13 +6925,26 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="str">
@@ -6882,13 +6954,26 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="str">
@@ -6898,13 +6983,26 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="str">
@@ -6914,13 +7012,26 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="str">
@@ -6930,12 +7041,15 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -6946,12 +7060,15 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -7021,13 +7138,26 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="str">
@@ -7037,13 +7167,26 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="str">
@@ -7053,13 +7196,26 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="str">
@@ -7069,13 +7225,26 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="str">
@@ -7085,12 +7254,15 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -7101,12 +7273,15 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -7176,13 +7351,26 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="str">
@@ -7192,13 +7380,26 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="str">
@@ -7208,13 +7409,26 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="str">
@@ -7224,13 +7438,26 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="str">
@@ -7240,12 +7467,15 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -7256,12 +7486,15 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -7331,13 +7564,26 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="str">
@@ -7347,13 +7593,26 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="str">
@@ -7363,13 +7622,26 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="str">
@@ -7379,13 +7651,26 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="str">
@@ -7395,12 +7680,15 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -7411,12 +7699,15 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -7486,13 +7777,26 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="str">
@@ -7502,13 +7806,26 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="str">
@@ -7518,13 +7835,26 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="str">
@@ -7534,13 +7864,26 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="str">
@@ -7550,12 +7893,15 @@
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -7566,12 +7912,15 @@
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -8378,6 +8727,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8390,8 +8740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8474,8 +8824,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>0.5</v>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8493,8 +8843,8 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0.5</v>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8512,8 +8862,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8531,8 +8881,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8543,12 +8893,15 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8559,12 +8912,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8641,8 +8997,8 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0.5</v>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8660,8 +9016,8 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0.5</v>
+      <c r="E11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8679,8 +9035,8 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0.5</v>
+      <c r="E12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -8698,8 +9054,8 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>0.5</v>
+      <c r="E13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8710,12 +9066,15 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8726,12 +9085,15 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -8801,12 +9163,15 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.7,"N.A.")</f>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -8817,12 +9182,15 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -8833,12 +9201,15 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -8849,12 +9220,15 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -8865,12 +9239,15 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -8881,12 +9258,15 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9577,12 +9957,15 @@
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f t="shared" ref="C50:C55" si="6">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -9593,12 +9976,15 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -9609,12 +9995,15 @@
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -9625,12 +10014,15 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -9641,12 +10033,15 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -9657,12 +10052,15 @@
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -9732,12 +10130,15 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
         <f t="shared" ref="C58:C63" si="7">IF(SUMPRODUCT(--(E58:T58&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -9748,12 +10149,15 @@
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -9764,12 +10168,15 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -9780,12 +10187,15 @@
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -9796,12 +10206,15 @@
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -9812,12 +10225,15 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -9887,12 +10303,15 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
         <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -9903,12 +10322,15 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -9919,12 +10341,15 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -9935,12 +10360,15 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -9951,12 +10379,15 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -9967,12 +10398,15 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -13569,8 +14003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14546,8 +14980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18444,8 +18878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18678,7 +19112,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
+        <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="D10" t="s">
@@ -18694,7 +19128,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C11:C15" si="1">IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -20201,7 +20635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -21488,7 +21922,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22029,15 +22463,12 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>N.A.</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
-      </c>
-      <c r="F26">
-        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -22048,15 +22479,12 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f t="shared" ref="C27:C31" si="3">IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>N.A.</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
-      </c>
-      <c r="F27">
-        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -22067,15 +22495,12 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
-      </c>
-      <c r="F28">
-        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -22086,15 +22511,12 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
-      </c>
-      <c r="F29">
-        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -22737,7 +23159,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25040" windowHeight="14960" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -565,9 +565,6 @@
   <si>
     <t>y</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -638,12 +635,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -679,7 +672,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -693,8 +686,6 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -708,8 +699,6 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1114,16 +1103,6 @@
       </c>
       <c r="D7">
         <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6655,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6732,15 +6711,12 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6751,15 +6727,12 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6770,26 +6743,13 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="str">
@@ -6799,26 +6759,13 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="str">
@@ -6828,15 +6775,12 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -6847,15 +6791,12 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -6925,26 +6866,13 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="str">
@@ -6954,26 +6882,13 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="str">
@@ -6983,26 +6898,13 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="str">
@@ -7012,26 +6914,13 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="str">
@@ -7041,15 +6930,12 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -7060,15 +6946,12 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -7138,26 +7021,13 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="str">
@@ -7167,26 +7037,13 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="str">
@@ -7196,26 +7053,13 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="str">
@@ -7225,26 +7069,13 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="str">
@@ -7254,15 +7085,12 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -7273,15 +7101,12 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -7351,26 +7176,13 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="str">
@@ -7380,26 +7192,13 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="str">
@@ -7409,26 +7208,13 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="str">
@@ -7438,26 +7224,13 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="str">
@@ -7467,15 +7240,12 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -7486,15 +7256,12 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <f t="shared" si="3"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -7564,26 +7331,13 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="str">
@@ -7593,26 +7347,13 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f t="shared" si="4"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="str">
@@ -7622,26 +7363,13 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <f t="shared" si="4"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="str">
@@ -7651,26 +7379,13 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <f t="shared" si="4"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="str">
@@ -7680,15 +7395,12 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <f t="shared" si="4"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -7699,15 +7411,12 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f t="shared" si="4"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -7777,26 +7486,13 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="str">
@@ -7806,26 +7502,13 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <f t="shared" si="5"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="str">
@@ -7835,26 +7518,13 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44">
         <f t="shared" si="5"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="str">
@@ -7864,26 +7534,13 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45">
         <f t="shared" si="5"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="str">
@@ -7893,15 +7550,12 @@
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46">
         <f t="shared" si="5"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -7912,15 +7566,12 @@
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47">
         <f t="shared" si="5"/>
-        <v>N.A.</v>
+        <v>0.15</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -8727,7 +8378,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8740,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8824,8 +8474,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
+      <c r="E2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8843,8 +8493,8 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8862,8 +8512,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
+      <c r="E4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8881,8 +8531,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8893,15 +8543,12 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8912,15 +8559,12 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8997,8 +8641,8 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
+      <c r="E10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -9016,8 +8660,8 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
+      <c r="E11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -9035,8 +8679,8 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
+      <c r="E12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -9054,8 +8698,8 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -9066,15 +8710,12 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -9085,15 +8726,12 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f t="shared" si="1"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -9163,15 +8801,12 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.7,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -9182,15 +8817,12 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -9201,15 +8833,12 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -9220,15 +8849,12 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9239,15 +8865,12 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -9258,15 +8881,12 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <f t="shared" si="2"/>
-        <v>N.A.</v>
+        <v>0.7</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9957,15 +9577,12 @@
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50">
         <f t="shared" ref="C50:C55" si="6">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -9976,15 +9593,12 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51">
         <f t="shared" si="6"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -9995,15 +9609,12 @@
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52">
         <f t="shared" si="6"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -10014,15 +9625,12 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53">
         <f t="shared" si="6"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -10033,15 +9641,12 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54">
         <f t="shared" si="6"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -10052,15 +9657,12 @@
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <f t="shared" si="6"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -10130,15 +9732,12 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58">
         <f t="shared" ref="C58:C63" si="7">IF(SUMPRODUCT(--(E58:T58&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -10149,15 +9748,12 @@
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59">
         <f t="shared" si="7"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -10168,15 +9764,12 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60">
         <f t="shared" si="7"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -10187,15 +9780,12 @@
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61">
         <f t="shared" si="7"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -10206,15 +9796,12 @@
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62">
         <f t="shared" si="7"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -10225,15 +9812,12 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63">
         <f t="shared" si="7"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -10303,15 +9887,12 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66">
         <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -10322,15 +9903,12 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67">
         <f t="shared" si="8"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -10341,15 +9919,12 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68">
         <f t="shared" si="8"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -10360,15 +9935,12 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69">
         <f t="shared" si="8"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -10379,15 +9951,12 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70">
         <f t="shared" si="8"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -10398,15 +9967,12 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71">
         <f t="shared" si="8"/>
-        <v>N.A.</v>
+        <v>0.2</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -14003,8 +13569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14980,8 +14546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18878,8 +18444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19112,7 +18678,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
+        <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="D10" t="s">
@@ -19128,7 +18694,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C15" si="1">IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,0,"N.A.")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -20635,7 +20201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -21922,7 +21488,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22463,12 +22029,15 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -22479,12 +22048,15 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f t="shared" ref="C27:C31" si="3">IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
+      </c>
+      <c r="F27">
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -22495,12 +22067,15 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
+      </c>
+      <c r="F28">
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -22511,12 +22086,15 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
+      </c>
+      <c r="F29">
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -23159,7 +22737,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/project/databook-belarus-template.xlsx
+++ b/project/databook-belarus-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-2060" yWindow="100" windowWidth="25600" windowHeight="15520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -663,16 +663,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -686,6 +693,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -699,6 +709,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6634,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6711,12 +6724,15 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6727,12 +6743,15 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6743,12 +6762,15 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6759,12 +6781,15 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6775,12 +6800,15 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -6791,12 +6819,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -6866,12 +6897,15 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -6882,12 +6916,15 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -6898,12 +6935,15 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -6914,12 +6954,15 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -6930,12 +6973,15 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -6946,12 +6992,15 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -7021,12 +7070,15 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -7037,12 +7089,15 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -7053,12 +7108,15 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -7069,12 +7127,15 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -7085,12 +7146,15 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -7101,12 +7165,15 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -7176,12 +7243,15 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -7192,12 +7262,15 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -7208,12 +7281,15 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -7224,12 +7300,15 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -7240,12 +7319,15 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -7256,12 +7338,15 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -7331,12 +7416,15 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -7347,12 +7435,15 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -7363,12 +7454,15 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -7379,12 +7473,15 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7395,12 +7492,15 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -7411,12 +7511,15 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -7486,12 +7589,15 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.15,"N.A.")</f>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -7502,12 +7608,15 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -7518,12 +7627,15 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -7534,12 +7646,15 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -7550,12 +7665,15 @@
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -7566,12 +7684,15 @@
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>N.A.</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -8390,8 +8511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8475,7 +8596,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8494,7 +8615,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8513,7 +8634,7 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8532,7 +8653,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8543,12 +8664,15 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8559,12 +8683,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8642,7 +8769,7 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8661,7 +8788,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8680,7 +8807,7 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -8699,7 +8826,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8710,12 +8837,15 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8726,12 +8856,15 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -8801,12 +8934,15 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.7,"N.A.")</f>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -8817,12 +8953,15 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -8833,12 +8972,15 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -8849,12 +8991,15 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -8865,12 +9010,15 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -8881,12 +9029,15 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>N.A.</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9577,12 +9728,15 @@
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f t="shared" ref="C50:C55" si="6">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -9593,12 +9747,15 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -9609,12 +9766,15 @@
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -9625,12 +9785,15 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -9641,12 +9804,15 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -9657,12 +9823,15 @@
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="str">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -9732,12 +9901,15 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
         <f t="shared" ref="C58:C63" si="7">IF(SUMPRODUCT(--(E58:T58&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -9748,12 +9920,15 @@
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -9764,12 +9939,15 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -9780,12 +9958,15 @@
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -9796,12 +9977,15 @@
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -9812,12 +9996,15 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -9887,12 +10074,15 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
         <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0.2,"N.A.")</f>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -9903,12 +10093,15 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -9919,12 +10112,15 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -9935,12 +10131,15 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -9951,12 +10150,15 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -9967,12 +10169,15 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="str">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>N.A.</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -11684,7 +11889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -13570,7 +13777,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14000,52 +14207,52 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>90068.800000000003</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>90068.800000000003</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>90068.800000000003</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>90068.800000000003</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>90068.800000000003</v>
       </c>
-      <c r="J10">
-        <v>102352.40000000001</v>
-      </c>
-      <c r="K10">
-        <v>102352.40000000001</v>
-      </c>
-      <c r="L10">
-        <v>102352.40000000001</v>
-      </c>
-      <c r="M10">
-        <v>102352.40000000001</v>
-      </c>
-      <c r="N10">
-        <v>102352.40000000001</v>
-      </c>
-      <c r="O10">
-        <v>111124.59999999999</v>
-      </c>
-      <c r="P10">
-        <v>111124.59999999999</v>
-      </c>
-      <c r="Q10">
-        <v>111124.59999999999</v>
-      </c>
-      <c r="R10">
-        <v>111124.59999999999</v>
-      </c>
-      <c r="S10">
-        <v>111124.59999999999</v>
-      </c>
-      <c r="T10">
+      <c r="J10" s="2">
+        <v>102352.4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>102352.4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>102352.4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>102352.4</v>
+      </c>
+      <c r="N10" s="2">
+        <v>102352.4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>111124.6</v>
+      </c>
+      <c r="P10" s="2">
+        <v>111124.6</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>111124.6</v>
+      </c>
+      <c r="R10" s="2">
+        <v>111124.6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>111124.6</v>
+      </c>
+      <c r="T10" s="2">
         <v>109426.4</v>
       </c>
     </row>
@@ -14547,7 +14754,7 @@
   <dimension ref="A1:T175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14811,15 +15018,20 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="P10" s="6">
+        <f>P2*0.8571429</f>
+        <v>1895.8860947942999</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2768</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="str">
@@ -14829,15 +15041,21 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="P11" s="6">
+        <f>P3*0.1578947</f>
+        <v>589.72628344980001</v>
+      </c>
+      <c r="R11" s="6">
+        <f>R3*0.27272727</f>
+        <v>1204.2667515936962</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="str">
@@ -14847,15 +15065,21 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="P12" s="6">
+        <f>P4*0.6630765</f>
+        <v>42933.798102643195</v>
+      </c>
+      <c r="R12" s="6">
+        <f>R4*0.954744</f>
+        <v>60782.026714248001</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="str">
@@ -14865,15 +15089,21 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="P13" s="6">
+        <f>0.5811808*P5</f>
+        <v>7401.5076577382415</v>
+      </c>
+      <c r="R13" s="6">
+        <f>R5*0.626667</f>
+        <v>7914.276243052499</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="str">
@@ -14974,15 +15204,20 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="P18">
+        <f>0.1428571*P2</f>
+        <v>315.98090520569991</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="str">
@@ -14992,15 +15227,21 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="P19">
+        <f>P3*0.8421953</f>
+        <v>3145.5438606101998</v>
+      </c>
+      <c r="R19" s="6">
+        <f>R3*0.72727273</f>
+        <v>3211.3780484063041</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="str">
@@ -15010,15 +15251,21 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="P20">
+        <f>P4*0.3369235</f>
+        <v>21815.590697356798</v>
+      </c>
+      <c r="R20" s="6">
+        <f>R4*0.045256</f>
+        <v>2881.1402857519997</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="str">
@@ -15028,15 +15275,21 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="P21">
+        <f>P5*0.4188192</f>
+        <v>5333.7851422617605</v>
+      </c>
+      <c r="R21" s="6">
+        <f>R5*0.3733333</f>
+        <v>4714.8850456947494</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="str">
@@ -18431,6 +18684,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18444,7 +18698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -22736,7 +22990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
